--- a/Тестовые посты.xlsx
+++ b/Тестовые посты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Прямой работодатель #Администратор
 #Работа #Москва Юноши 21+ 50.000 рублей
@@ -87,12 +87,6 @@
 19.Моск.Обл.Одинцовский р-н поселок Барвиха д.85/1 
 20.Московская обл, д.Борзые, ул.Невская д.704, ТЦ Княжий Двор
 Вконтакте: https://vk.com/id8899833</t>
-  </si>
-  <si>
-    <t>Gob title: Бухгалтер
-Компания:
-Gob description: Бухгалтер 20000 р. ООО НПО «БАШТАЛЬК» Информация о вакансии ЦЗН Филиал ГКУ Восточный межрайонный ЦЗН по… Повременная премиальная Характер работы постоянно Режим работы работа в одну смену — 1 Специализаци...
-#москва #работавмоскве #работа #вакансии #вакансия #job #work</t>
   </si>
   <si>
     <t>«Я делал это для себя. Мне это нравилось»: закончился сериал «Во все тяжкие» про простого семьянина Уолтера Уайта, прошедшего путь от учителя химии до главного наркодельца Нью-Мехико. Георгий Биргер объясняет, почему этот финал означает нечто большее, чем простое сведение счетов.
@@ -168,6 +162,14 @@
 Компания: ООО "Клиника современных технологий "Садко"
 Подробней: http://novgorod.rus-work.com/vakansii/id47734
 #вакансии #нижний_новгород</t>
+  </si>
+  <si>
+    <t>1,4,7,9,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gob title: Бухгалтер
+Компания:
+Gob description: Бухгалтер 20000 р. ООО НПО «БАШТАЛЬК» Информация о вакансии ЦЗН Филиал ГКУ Восточный межрайонный ЦЗН по… Повременная премиальная Характер работы постоянно Режим работы работа в одну смену — 1 Специализаци… </t>
   </si>
 </sst>
 </file>
@@ -509,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,42 +522,42 @@
     <col min="2" max="2" width="174.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -566,23 +568,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -593,15 +595,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -612,15 +614,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Тестовые посты.xlsx
+++ b/Тестовые посты.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Прямой работодатель #Администратор
 #Работа #Москва Юноши 21+ 50.000 рублей
@@ -170,6 +170,18 @@
     <t xml:space="preserve">Gob title: Бухгалтер
 Компания:
 Gob description: Бухгалтер 20000 р. ООО НПО «БАШТАЛЬК» Информация о вакансии ЦЗН Филиал ГКУ Восточный межрайонный ЦЗН по… Повременная премиальная Характер работы постоянно Режим работы работа в одну смену — 1 Специализаци… </t>
+  </si>
+  <si>
+    <t>4,7,9</t>
+  </si>
+  <si>
+    <t>4,7,9,10</t>
+  </si>
+  <si>
+    <t>if user profile city is not moscow</t>
+  </si>
+  <si>
+    <t>if user profile city is moscow</t>
   </si>
 </sst>
 </file>
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +534,7 @@
     <col min="2" max="2" width="174.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -530,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,7 +561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -557,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -568,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -576,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -584,7 +596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -595,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -603,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -614,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -625,13 +637,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
